--- a/cp_1/dbuf.xlsx
+++ b/cp_1/dbuf.xlsx
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DH5" sqref="DH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2215,13 +2215,14 @@
         <v>5540</v>
       </c>
       <c r="DE5">
-        <v>2</v>
+        <f>CZ5+1</f>
+        <v>5</v>
       </c>
       <c r="DF5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DH5">
         <f>DC5+105</f>
